--- a/artfynd/A 9383-2021.xlsx
+++ b/artfynd/A 9383-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7128321</v>
+        <v>87674816</v>
       </c>
       <c r="B2" t="n">
-        <v>101680</v>
+        <v>94121</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Grävsätter, Sm</t>
+          <t>Grävsjön, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575871.1940322202</v>
+        <v>575664.018519243</v>
       </c>
       <c r="R2" t="n">
-        <v>6447592.047207238</v>
+        <v>6448170.117236204</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -754,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-09-28</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-09-28</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Mille Fagerström  ID;32614</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -789,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87674816</v>
+        <v>87675119</v>
       </c>
       <c r="B3" t="n">
-        <v>94121</v>
+        <v>93132</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>2671</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575664.018519243</v>
+        <v>575662.9616507079</v>
       </c>
       <c r="R3" t="n">
-        <v>6448170.117236204</v>
+        <v>6448170.097076769</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87675119</v>
+        <v>87674986</v>
       </c>
       <c r="B4" t="n">
-        <v>93132</v>
+        <v>93145</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575662.9616507079</v>
+        <v>575665.0753877749</v>
       </c>
       <c r="R4" t="n">
-        <v>6448170.097076769</v>
+        <v>6448170.137395918</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87674986</v>
+        <v>7128321</v>
       </c>
       <c r="B5" t="n">
-        <v>93145</v>
+        <v>101680</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1032,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2667</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Grävsjön, Sm</t>
+          <t>Grävsätter, Sm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575665.0753877749</v>
+        <v>575871.1940322202</v>
       </c>
       <c r="R5" t="n">
-        <v>6448170.137395918</v>
+        <v>6447592.047207238</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1095,7 +1090,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2011-09-28</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1105,12 +1100,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2011-09-28</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Mille Fagerström  ID;32614</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1125,12 +1125,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 9383-2021.xlsx
+++ b/artfynd/A 9383-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87674816</v>
+        <v>7128321</v>
       </c>
       <c r="B2" t="n">
-        <v>94121</v>
+        <v>101680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>222412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Grävsjön, Sm</t>
+          <t>Grävsätter, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575664.018519243</v>
+        <v>575871.1940322202</v>
       </c>
       <c r="R2" t="n">
-        <v>6448170.117236204</v>
+        <v>6447592.047207238</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2011-09-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +764,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2011-09-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Sveaskogs Naturvärdesinventering -Inventerare: Mille Fagerström  ID;32614</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +789,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87675119</v>
+        <v>87674816</v>
       </c>
       <c r="B3" t="n">
-        <v>93132</v>
+        <v>94121</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2671</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575662.9616507079</v>
+        <v>575664.018519243</v>
       </c>
       <c r="R3" t="n">
-        <v>6448170.097076769</v>
+        <v>6448170.117236204</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87674986</v>
+        <v>87675119</v>
       </c>
       <c r="B4" t="n">
-        <v>93145</v>
+        <v>93132</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +929,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575665.0753877749</v>
+        <v>575662.9616507079</v>
       </c>
       <c r="R4" t="n">
-        <v>6448170.137395918</v>
+        <v>6448170.097076769</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7128321</v>
+        <v>87674986</v>
       </c>
       <c r="B5" t="n">
-        <v>101680</v>
+        <v>93145</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,38 +1041,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>2667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Grävsätter, Sm</t>
+          <t>Grävsjön, Sm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575871.1940322202</v>
+        <v>575665.0753877749</v>
       </c>
       <c r="R5" t="n">
-        <v>6447592.047207238</v>
+        <v>6448170.137395918</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1090,7 +1095,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2011-09-28</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1100,17 +1105,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2011-09-28</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Sveaskogs Naturvärdesinventering -Inventerare: Mille Fagerström  ID;32614</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1125,12 +1125,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
